--- a/Assets/HCH/Assets_HCH/DialogDB.xlsx
+++ b/Assets/HCH/Assets_HCH/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\RealIllusionSpace\RealIllusionSpace\Assets\HCH\Assets_HCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854F7E51-1C33-416B-8403-8331A6B1B7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F700E90-10B2-42E4-843D-ADBC594C3FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1125" windowWidth="10155" windowHeight="6000" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,42 @@
   </si>
   <si>
     <t>테스트 메시지2-2 입니다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요! IllusionSpace팀입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리가 직면하는 모든 문제는 어떻게든 해결할 수 있는 것인 경우가 많습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 우리는 실패에 대한 두려움 때문에 문제를 새로운 시각으로 보지 않게 됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 할 일은 하나죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뜨세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 같은 실수를 반복하게 되고, 결국 예상했던 실패를 겪게 되고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘, 여러분은 상황을 다르게 볼 기회를 잡으셨습니다. 
+불가능해 보이는 장애물을 극복하며 자신만의 길을 찾으셨죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 곧 현실로 돌아가겠지만, 그 경험이 여러분에게 의미가 있었음을 기억하세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -70,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +121,60 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1918"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="맑은 고딕"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,18 +194,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AB17A-46FC-40A3-92B5-51357E07D967}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,6 +627,105 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="258.75" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/HCH/Assets_HCH/DialogDB.xlsx
+++ b/Assets/HCH/Assets_HCH/DialogDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\RealIllusionSpace\RealIllusionSpace\Assets\HCH\Assets_HCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F700E90-10B2-42E4-843D-ADBC594C3FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D08A4-8797-44D7-BA61-1562964A6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>이제 곧 현실로 돌아가겠지만, 그 경험이 여러분에게 의미가 있었음을 기억하세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 발생 : 폭발성 꿈 과부화가 걸릴 수 있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,7 +575,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -700,7 +704,12 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>

--- a/Assets/HCH/Assets_HCH/DialogDB.xlsx
+++ b/Assets/HCH/Assets_HCH/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\RealIllusionSpace\RealIllusionSpace\Assets\HCH\Assets_HCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304D08A4-8797-44D7-BA61-1562964A6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018C580-021A-48DD-9332-63D6239A97FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,7 +102,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>에러 발생 : 폭발성 꿈 과부화가 걸릴 수 있습니다.</t>
+    <t>안녕하세요! IllusionSpace팀입니다. 그리고 오래 전에 저는 꿈을 꾸었죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 우리 모두가 무에서 시작했다는 것을 이해할 수 있는 장소에 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제가 인식하는 모든 것이 제가 원하는 방식 그대로 보이도록 조형되는 장소였죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 여백이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 꿈을 넘어선 곳에 다다르셨습니다. 돌아온 사람이 없는 경지지요.
+하지만 낙담하지 않으시기를 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기로 오신 이유가 바로 이거 아닌가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻든, 이곳이 순수한 관점의 장소라면 다른 관점을 취해 무엇이든 가능하게 만들 수 있는 장소도
+되지 않을까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 : 폭발성 꿈 과부화가 걸릴 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭발성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꿈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과부화가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>걸릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="맑은 고딕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AB17A-46FC-40A3-92B5-51357E07D967}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -708,32 +881,80 @@
         <v>4</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/HCH/Assets_HCH/DialogDB.xlsx
+++ b/Assets/HCH/Assets_HCH/DialogDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\RealIllusionSpace\RealIllusionSpace\Assets\HCH\Assets_HCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018C580-021A-48DD-9332-63D6239A97FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E31FEEA-55FB-4182-AE19-09E20A4C1284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3228FF01-DAA2-4F9B-B5BD-032A5EFEA2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,20 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 약관에 동의하셨습니다. 잠드신 것을 축하합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트에 참가하신 것을 환영합니다. 진행 상황은 자격을 갖춘
+전문가가 꼼꼼히 모니터링합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번 오리엔테이션에서는 꿈 속에서 완전히 의식을 각성하고 통제할 수 있는
+ 상호작용형 유도 자각몽 상태, 즉 I-LIDS에 적응해보겠습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +423,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173AB17A-46FC-40A3-92B5-51357E07D967}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -956,6 +973,30 @@
         <v>21</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
